--- a/1006/1006-TestCase.xlsx
+++ b/1006/1006-TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canhm\Documents\GitHub\4-cdptw1-1\1006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canhm\Documents\GitHub\4-cdptw1-1\1003\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>VERSION</t>
   </si>
@@ -515,44 +515,7 @@
     <t>Màu sắc background  và màu chữ của element được hover thay đổi.</t>
   </si>
   <si>
-    <t>element được click đổi màu, chuyển tab</t>
-  </si>
-  <si>
-    <t>hiện con trỏ</t>
-  </si>
-  <si>
-    <t>thây đổi nội dung</t>
-  </si>
-  <si>
-    <t>Module 1006</t>
-  </si>
-  <si>
-    <t>click gird icon</t>
-  </si>
-  <si>
-    <t>click list icon</t>
-  </si>
-  <si>
-    <t>click giird, list icon</t>
-  </si>
-  <si>
-    <t>hover vào gird, list icon</t>
-  </si>
-  <si>
-    <t>hover vào cart icon, quickview, add to cart icon</t>
-  </si>
-  <si>
-    <t>Thây đổi màu khi hover vào các 
- icon, quickview, add to cart icon</t>
-  </si>
-  <si>
-    <t>Hiện con trỏ khi hover vào các product icon</t>
-  </si>
-  <si>
-    <t>hover vào sản phầm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiện con trỏ khi hover vào các product </t>
+    <t>Module 1002</t>
   </si>
 </sst>
 </file>
@@ -916,7 +879,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1053,135 +1016,117 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,72 +1333,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1661,19 +1540,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1692,8 +1571,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="38100"/>
-          <a:ext cx="10058400" cy="2466975"/>
+          <a:off x="381000" y="495300"/>
+          <a:ext cx="10058400" cy="1042008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1704,20 +1583,64 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4762500"/>
+          <a:ext cx="8143875" cy="1042008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1736,52 +1659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981200" y="2505075"/>
-          <a:ext cx="3371850" cy="2533649"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="5143500"/>
-          <a:ext cx="9372600" cy="3981450"/>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="3524250" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3245,35 +3124,35 @@
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="37"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
       <c r="AS17" s="37"/>
       <c r="AT17" s="37"/>
       <c r="AU17" s="37"/>
@@ -3481,16 +3360,16 @@
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
@@ -4743,10 +4622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI40"/>
+  <dimension ref="A1:BI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AM10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8:BH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4763,287 +4642,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="70" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="71" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="73" t="s">
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="72"/>
-      <c r="AQ1" s="72"/>
-      <c r="AR1" s="72"/>
-      <c r="AS1" s="73" t="s">
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="72"/>
-      <c r="AU1" s="72"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="56" t="s">
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59" t="s">
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68">
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="62">
         <f>COUNTIF($AR:$AR,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="68">
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="62">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="56" t="s">
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="69" t="s">
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="59"/>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
-      <c r="BH3" s="76"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="70"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="114"/>
-      <c r="AE4" s="114"/>
-      <c r="AF4" s="114"/>
-      <c r="AG4" s="114"/>
-      <c r="AH4" s="114"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="60" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
-      <c r="AS4" s="78"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="60" t="s">
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="79"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="73"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -5109,2497 +4988,2001 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="80" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="85" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="85" t="s">
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="85" t="s">
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="85" t="s">
+      <c r="AO6" s="80"/>
+      <c r="AP6" s="80"/>
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="85" t="s">
+      <c r="AS6" s="80"/>
+      <c r="AT6" s="81"/>
+      <c r="AU6" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AV6" s="86"/>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="85" t="s">
+      <c r="AV6" s="80"/>
+      <c r="AW6" s="81"/>
+      <c r="AX6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="86"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="91" t="s">
+      <c r="AY6" s="80"/>
+      <c r="AZ6" s="81"/>
+      <c r="BA6" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="91"/>
-      <c r="BG6" s="91"/>
-      <c r="BH6" s="91"/>
+      <c r="BB6" s="85"/>
+      <c r="BC6" s="85"/>
+      <c r="BD6" s="85"/>
+      <c r="BE6" s="85"/>
+      <c r="BF6" s="85"/>
+      <c r="BG6" s="85"/>
+      <c r="BH6" s="85"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="82" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84" t="s">
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="88"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="88"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="82"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="85"/>
+      <c r="BD7" s="85"/>
+      <c r="BE7" s="85"/>
+      <c r="BF7" s="85"/>
+      <c r="BG7" s="85"/>
+      <c r="BH7" s="85"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="122" t="s">
+      <c r="A8" s="112">
+        <v>4</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="172" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="160"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="161"/>
-      <c r="AR8" s="98" t="s">
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" s="123"/>
+      <c r="AE8" s="123"/>
+      <c r="AF8" s="123"/>
+      <c r="AG8" s="123"/>
+      <c r="AH8" s="123"/>
+      <c r="AI8" s="123"/>
+      <c r="AJ8" s="123"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="123"/>
+      <c r="AM8" s="124"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="134"/>
+      <c r="AP8" s="134"/>
+      <c r="AQ8" s="135"/>
+      <c r="AR8" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="AS8" s="140"/>
-      <c r="AT8" s="141"/>
-      <c r="AU8" s="160"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="161"/>
-      <c r="AX8" s="160"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="161"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="162"/>
-      <c r="BI8" s="9"/>
+      <c r="AS8" s="134"/>
+      <c r="AT8" s="135"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="134"/>
+      <c r="AW8" s="135"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="134"/>
+      <c r="AZ8" s="135"/>
+      <c r="BA8" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB8" s="90"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="90"/>
+      <c r="BH8" s="91"/>
+      <c r="BI8" s="10"/>
     </row>
     <row r="9" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="177"/>
-      <c r="T9" s="169"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="164"/>
-      <c r="AG9" s="164"/>
-      <c r="AH9" s="164"/>
-      <c r="AI9" s="164"/>
-      <c r="AJ9" s="164"/>
-      <c r="AK9" s="164"/>
-      <c r="AL9" s="164"/>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="161"/>
-      <c r="AR9" s="156"/>
-      <c r="AS9" s="157"/>
-      <c r="AT9" s="158"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="6"/>
-      <c r="AW9" s="161"/>
-      <c r="AX9" s="160"/>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="161"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53"/>
-      <c r="BF9" s="53"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="162"/>
-      <c r="BI9" s="9"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="150"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="151"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="150"/>
+      <c r="AS9" s="151"/>
+      <c r="AT9" s="152"/>
+      <c r="AU9" s="150"/>
+      <c r="AV9" s="151"/>
+      <c r="AW9" s="152"/>
+      <c r="AX9" s="150"/>
+      <c r="AY9" s="151"/>
+      <c r="AZ9" s="152"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="46"/>
+      <c r="BG9" s="46"/>
+      <c r="BH9" s="47"/>
+      <c r="BI9" s="10"/>
     </row>
     <row r="10" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="180"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="160"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="161"/>
-      <c r="AR10" s="142"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="144"/>
-      <c r="AU10" s="160"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="161"/>
-      <c r="AX10" s="160"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="161"/>
-      <c r="BA10" s="52"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="162"/>
-      <c r="BI10" s="9"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="144"/>
+      <c r="AK10" s="144"/>
+      <c r="AL10" s="144"/>
+      <c r="AM10" s="153"/>
+      <c r="AN10" s="136"/>
+      <c r="AO10" s="137"/>
+      <c r="AP10" s="137"/>
+      <c r="AQ10" s="138"/>
+      <c r="AR10" s="136"/>
+      <c r="AS10" s="137"/>
+      <c r="AT10" s="138"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="137"/>
+      <c r="AW10" s="138"/>
+      <c r="AX10" s="136"/>
+      <c r="AY10" s="137"/>
+      <c r="AZ10" s="138"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="87"/>
+      <c r="BC10" s="87"/>
+      <c r="BD10" s="87"/>
+      <c r="BE10" s="87"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="88"/>
+      <c r="BI10" s="10"/>
     </row>
     <row r="11" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="122" t="s">
+      <c r="A11" s="112">
+        <v>1</v>
+      </c>
+      <c r="B11" s="113"/>
+      <c r="C11" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="166" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="168"/>
-      <c r="AC11" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="160"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="161"/>
-      <c r="AR11" s="98" t="s">
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
+      <c r="AA11" s="129"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="123"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="123"/>
+      <c r="AG11" s="123"/>
+      <c r="AH11" s="123"/>
+      <c r="AI11" s="123"/>
+      <c r="AJ11" s="123"/>
+      <c r="AK11" s="123"/>
+      <c r="AL11" s="123"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="AS11" s="140"/>
-      <c r="AT11" s="141"/>
-      <c r="AU11" s="160"/>
-      <c r="AV11" s="6"/>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="160"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="161"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="162"/>
-      <c r="BI11" s="9"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB11" s="94"/>
+      <c r="BC11" s="94"/>
+      <c r="BD11" s="94"/>
+      <c r="BE11" s="94"/>
+      <c r="BF11" s="94"/>
+      <c r="BG11" s="94"/>
+      <c r="BH11" s="95"/>
+      <c r="BI11" s="10"/>
     </row>
     <row r="12" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="160"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="170"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="171"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="164"/>
-      <c r="AI12" s="164"/>
-      <c r="AJ12" s="164"/>
-      <c r="AK12" s="164"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="165"/>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="161"/>
-      <c r="AR12" s="156"/>
-      <c r="AS12" s="157"/>
-      <c r="AT12" s="158"/>
-      <c r="AU12" s="160"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="161"/>
-      <c r="AX12" s="160"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="161"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53"/>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="53"/>
-      <c r="BH12" s="162"/>
-      <c r="BI12" s="9"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="126"/>
+      <c r="AK12" s="126"/>
+      <c r="AL12" s="126"/>
+      <c r="AM12" s="127"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="92"/>
+      <c r="BA12" s="86"/>
+      <c r="BB12" s="87"/>
+      <c r="BC12" s="87"/>
+      <c r="BD12" s="87"/>
+      <c r="BE12" s="87"/>
+      <c r="BF12" s="87"/>
+      <c r="BG12" s="87"/>
+      <c r="BH12" s="88"/>
+      <c r="BI12" s="10"/>
     </row>
     <row r="13" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="179"/>
-      <c r="R13" s="179"/>
-      <c r="S13" s="180"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="160"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="161"/>
-      <c r="AR13" s="142"/>
-      <c r="AS13" s="143"/>
-      <c r="AT13" s="144"/>
-      <c r="AU13" s="160"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="161"/>
-      <c r="AX13" s="160"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="161"/>
-      <c r="BA13" s="52"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="53"/>
-      <c r="BH13" s="162"/>
-      <c r="BI13" s="9"/>
+      <c r="A13" s="112">
+        <v>2</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
+      <c r="AA13" s="129"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="123"/>
+      <c r="AH13" s="123"/>
+      <c r="AI13" s="123"/>
+      <c r="AJ13" s="123"/>
+      <c r="AK13" s="123"/>
+      <c r="AL13" s="123"/>
+      <c r="AM13" s="124"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="134"/>
+      <c r="AP13" s="134"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS13" s="134"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="135"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB13" s="90"/>
+      <c r="BC13" s="90"/>
+      <c r="BD13" s="90"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="90"/>
+      <c r="BG13" s="90"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="10"/>
     </row>
     <row r="14" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="122" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="127"/>
+      <c r="AN14" s="136"/>
+      <c r="AO14" s="137"/>
+      <c r="AP14" s="137"/>
+      <c r="AQ14" s="138"/>
+      <c r="AR14" s="136"/>
+      <c r="AS14" s="137"/>
+      <c r="AT14" s="138"/>
+      <c r="AU14" s="136"/>
+      <c r="AV14" s="137"/>
+      <c r="AW14" s="138"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="92"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="87"/>
+      <c r="BC14" s="87"/>
+      <c r="BD14" s="87"/>
+      <c r="BE14" s="87"/>
+      <c r="BF14" s="87"/>
+      <c r="BG14" s="87"/>
+      <c r="BH14" s="88"/>
+      <c r="BI14" s="10"/>
+    </row>
+    <row r="15" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A15" s="112">
+        <v>3</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="174"/>
-      <c r="T14" s="181" t="s">
-        <v>78</v>
-      </c>
-      <c r="U14" s="167"/>
-      <c r="V14" s="167"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="160"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="161"/>
-      <c r="AR14" s="98" t="s">
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="129"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" s="129"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="129"/>
+      <c r="AH15" s="129"/>
+      <c r="AI15" s="129"/>
+      <c r="AJ15" s="129"/>
+      <c r="AK15" s="129"/>
+      <c r="AL15" s="129"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="134"/>
+      <c r="AP15" s="134"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="AS14" s="140"/>
-      <c r="AT14" s="141"/>
-      <c r="AU14" s="160"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="161"/>
-      <c r="AX14" s="160"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="161"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="53"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="53"/>
-      <c r="BG14" s="53"/>
-      <c r="BH14" s="162"/>
-      <c r="BI14" s="9"/>
-    </row>
-    <row r="15" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="169"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="170"/>
-      <c r="X15" s="170"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="170"/>
-      <c r="AA15" s="170"/>
-      <c r="AB15" s="171"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="164"/>
-      <c r="AG15" s="164"/>
-      <c r="AH15" s="164"/>
-      <c r="AI15" s="164"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="164"/>
-      <c r="AL15" s="164"/>
-      <c r="AM15" s="165"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="161"/>
-      <c r="AR15" s="156"/>
-      <c r="AS15" s="157"/>
-      <c r="AT15" s="158"/>
-      <c r="AU15" s="160"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="161"/>
-      <c r="AX15" s="160"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="161"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="53"/>
-      <c r="BC15" s="53"/>
-      <c r="BD15" s="53"/>
-      <c r="BE15" s="53"/>
-      <c r="BF15" s="53"/>
-      <c r="BG15" s="53"/>
-      <c r="BH15" s="162"/>
-      <c r="BI15" s="9"/>
+      <c r="AS15" s="134"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="134"/>
+      <c r="AW15" s="135"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="92"/>
+      <c r="BA15" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="94"/>
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="95"/>
+      <c r="BI15" s="10"/>
     </row>
     <row r="16" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="179"/>
-      <c r="R16" s="179"/>
-      <c r="S16" s="180"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="160"/>
-      <c r="AO16" s="6"/>
-      <c r="AP16" s="6"/>
-      <c r="AQ16" s="161"/>
-      <c r="AR16" s="142"/>
-      <c r="AS16" s="143"/>
-      <c r="AT16" s="144"/>
-      <c r="AU16" s="160"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="161"/>
-      <c r="AX16" s="160"/>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="161"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="53"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="162"/>
-      <c r="BI16" s="9"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="147"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="146"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="137"/>
+      <c r="AP16" s="137"/>
+      <c r="AQ16" s="138"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="137"/>
+      <c r="AT16" s="138"/>
+      <c r="AU16" s="136"/>
+      <c r="AV16" s="137"/>
+      <c r="AW16" s="138"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="92"/>
+      <c r="BA16" s="86"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
+      <c r="BD16" s="96"/>
+      <c r="BE16" s="96"/>
+      <c r="BF16" s="96"/>
+      <c r="BG16" s="96"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="10"/>
     </row>
     <row r="17" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="122" t="s">
+      <c r="A17" s="112">
+        <v>4</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="172" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="174"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="167"/>
-      <c r="X17" s="167"/>
-      <c r="Y17" s="167"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="86"/>
-      <c r="AJ17" s="86"/>
-      <c r="AK17" s="86"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="160"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="161"/>
-      <c r="AR17" s="98" t="s">
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="129"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD17" s="123"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="123"/>
+      <c r="AI17" s="123"/>
+      <c r="AJ17" s="123"/>
+      <c r="AK17" s="123"/>
+      <c r="AL17" s="123"/>
+      <c r="AM17" s="124"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="134"/>
+      <c r="AP17" s="134"/>
+      <c r="AQ17" s="135"/>
+      <c r="AR17" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="AS17" s="140"/>
-      <c r="AT17" s="141"/>
-      <c r="AU17" s="160"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="161"/>
-      <c r="AX17" s="160"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="161"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
-      <c r="BE17" s="53"/>
-      <c r="BF17" s="53"/>
-      <c r="BG17" s="53"/>
-      <c r="BH17" s="162"/>
-      <c r="BI17" s="9"/>
+      <c r="AS17" s="134"/>
+      <c r="AT17" s="135"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="134"/>
+      <c r="AW17" s="135"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="134"/>
+      <c r="AZ17" s="135"/>
+      <c r="BA17" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB17" s="90"/>
+      <c r="BC17" s="90"/>
+      <c r="BD17" s="90"/>
+      <c r="BE17" s="90"/>
+      <c r="BF17" s="90"/>
+      <c r="BG17" s="90"/>
+      <c r="BH17" s="91"/>
+      <c r="BI17" s="10"/>
     </row>
     <row r="18" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="176"/>
-      <c r="O18" s="176"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="169"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="170"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="170"/>
-      <c r="AA18" s="170"/>
-      <c r="AB18" s="171"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="164"/>
-      <c r="AH18" s="164"/>
-      <c r="AI18" s="164"/>
-      <c r="AJ18" s="164"/>
-      <c r="AK18" s="164"/>
-      <c r="AL18" s="164"/>
-      <c r="AM18" s="165"/>
-      <c r="AN18" s="160"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="161"/>
-      <c r="AR18" s="156"/>
-      <c r="AS18" s="157"/>
-      <c r="AT18" s="158"/>
-      <c r="AU18" s="160"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="161"/>
-      <c r="AX18" s="160"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="161"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="53"/>
-      <c r="BC18" s="53"/>
-      <c r="BD18" s="53"/>
-      <c r="BE18" s="53"/>
-      <c r="BF18" s="53"/>
-      <c r="BG18" s="53"/>
-      <c r="BH18" s="162"/>
-      <c r="BI18" s="9"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="144"/>
+      <c r="AE18" s="144"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="144"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="144"/>
+      <c r="AM18" s="153"/>
+      <c r="AN18" s="150"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="152"/>
+      <c r="AR18" s="150"/>
+      <c r="AS18" s="151"/>
+      <c r="AT18" s="152"/>
+      <c r="AU18" s="150"/>
+      <c r="AV18" s="151"/>
+      <c r="AW18" s="152"/>
+      <c r="AX18" s="150"/>
+      <c r="AY18" s="151"/>
+      <c r="AZ18" s="152"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="10"/>
     </row>
     <row r="19" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="179"/>
-      <c r="Q19" s="179"/>
-      <c r="R19" s="179"/>
-      <c r="S19" s="180"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="160"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="161"/>
-      <c r="AR19" s="142"/>
-      <c r="AS19" s="143"/>
-      <c r="AT19" s="144"/>
-      <c r="AU19" s="160"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="161"/>
-      <c r="AX19" s="160"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="161"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="53"/>
-      <c r="BC19" s="53"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="53"/>
-      <c r="BF19" s="53"/>
-      <c r="BG19" s="53"/>
-      <c r="BH19" s="162"/>
-      <c r="BI19" s="9"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+      <c r="AB19" s="133"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="144"/>
+      <c r="AE19" s="144"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="144"/>
+      <c r="AK19" s="144"/>
+      <c r="AL19" s="144"/>
+      <c r="AM19" s="153"/>
+      <c r="AN19" s="136"/>
+      <c r="AO19" s="137"/>
+      <c r="AP19" s="137"/>
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="136"/>
+      <c r="AS19" s="137"/>
+      <c r="AT19" s="138"/>
+      <c r="AU19" s="136"/>
+      <c r="AV19" s="137"/>
+      <c r="AW19" s="138"/>
+      <c r="AX19" s="136"/>
+      <c r="AY19" s="137"/>
+      <c r="AZ19" s="138"/>
+      <c r="BA19" s="86"/>
+      <c r="BB19" s="87"/>
+      <c r="BC19" s="87"/>
+      <c r="BD19" s="87"/>
+      <c r="BE19" s="87"/>
+      <c r="BF19" s="87"/>
+      <c r="BG19" s="87"/>
+      <c r="BH19" s="88"/>
+      <c r="BI19" s="10"/>
     </row>
     <row r="20" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="166"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="167"/>
-      <c r="X20" s="167"/>
-      <c r="Y20" s="167"/>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="167"/>
-      <c r="AB20" s="168"/>
-      <c r="AC20" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="160"/>
-      <c r="AO20" s="6"/>
-      <c r="AP20" s="6"/>
-      <c r="AQ20" s="161"/>
-      <c r="AR20" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS20" s="140"/>
-      <c r="AT20" s="141"/>
-      <c r="AU20" s="160"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="161"/>
-      <c r="AX20" s="160"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="161"/>
-      <c r="BA20" s="52"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="53"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="162"/>
-      <c r="BI20" s="9"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
     </row>
     <row r="21" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="160"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="169"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="170"/>
-      <c r="X21" s="170"/>
-      <c r="Y21" s="170"/>
-      <c r="Z21" s="170"/>
-      <c r="AA21" s="170"/>
-      <c r="AB21" s="171"/>
-      <c r="AC21" s="163"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="164"/>
-      <c r="AG21" s="164"/>
-      <c r="AH21" s="164"/>
-      <c r="AI21" s="164"/>
-      <c r="AJ21" s="164"/>
-      <c r="AK21" s="164"/>
-      <c r="AL21" s="164"/>
-      <c r="AM21" s="165"/>
-      <c r="AN21" s="160"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="161"/>
-      <c r="AR21" s="156"/>
-      <c r="AS21" s="157"/>
-      <c r="AT21" s="158"/>
-      <c r="AU21" s="160"/>
-      <c r="AV21" s="6"/>
-      <c r="AW21" s="161"/>
-      <c r="AX21" s="160"/>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="161"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="162"/>
-      <c r="BI21" s="9"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
     </row>
     <row r="22" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="160"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="142"/>
-      <c r="AS22" s="143"/>
-      <c r="AT22" s="144"/>
-      <c r="AU22" s="160"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="161"/>
-      <c r="AX22" s="160"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="161"/>
-      <c r="BA22" s="52"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="162"/>
-      <c r="BI22" s="9"/>
-    </row>
-    <row r="23" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="166"/>
-      <c r="U23" s="167"/>
-      <c r="V23" s="167"/>
-      <c r="W23" s="167"/>
-      <c r="X23" s="167"/>
-      <c r="Y23" s="167"/>
-      <c r="Z23" s="167"/>
-      <c r="AA23" s="167"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="87"/>
-      <c r="AN23" s="160"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="161"/>
-      <c r="AR23" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS23" s="140"/>
-      <c r="AT23" s="141"/>
-      <c r="AU23" s="160"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="161"/>
-      <c r="AX23" s="160"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="161"/>
-      <c r="BA23" s="52"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="162"/>
-      <c r="BI23" s="9"/>
-    </row>
-    <row r="24" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24" s="160"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="164"/>
-      <c r="Q24" s="164"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="165"/>
-      <c r="T24" s="169"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="163"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="164"/>
-      <c r="AG24" s="164"/>
-      <c r="AH24" s="164"/>
-      <c r="AI24" s="164"/>
-      <c r="AJ24" s="164"/>
-      <c r="AK24" s="164"/>
-      <c r="AL24" s="164"/>
-      <c r="AM24" s="165"/>
-      <c r="AN24" s="160"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="161"/>
-      <c r="AR24" s="156"/>
-      <c r="AS24" s="157"/>
-      <c r="AT24" s="158"/>
-      <c r="AU24" s="160"/>
-      <c r="AV24" s="6"/>
-      <c r="AW24" s="161"/>
-      <c r="AX24" s="160"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="161"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="53"/>
-      <c r="BH24" s="162"/>
-      <c r="BI24" s="9"/>
-    </row>
-    <row r="25" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="90"/>
-      <c r="AN25" s="160"/>
-      <c r="AO25" s="6"/>
-      <c r="AP25" s="6"/>
-      <c r="AQ25" s="161"/>
-      <c r="AR25" s="142"/>
-      <c r="AS25" s="143"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="160"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="161"/>
-      <c r="AX25" s="160"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="161"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53"/>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="162"/>
-      <c r="BI25" s="9"/>
-    </row>
-    <row r="26" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A26" s="160"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="167"/>
-      <c r="V26" s="167"/>
-      <c r="W26" s="167"/>
-      <c r="X26" s="167"/>
-      <c r="Y26" s="167"/>
-      <c r="Z26" s="167"/>
-      <c r="AA26" s="167"/>
-      <c r="AB26" s="168"/>
-      <c r="AC26" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="6"/>
-      <c r="AP26" s="6"/>
-      <c r="AQ26" s="161"/>
-      <c r="AR26" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS26" s="140"/>
-      <c r="AT26" s="141"/>
-      <c r="AU26" s="160"/>
-      <c r="AV26" s="6"/>
-      <c r="AW26" s="161"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="161"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="53"/>
-      <c r="BC26" s="53"/>
-      <c r="BD26" s="53"/>
-      <c r="BE26" s="53"/>
-      <c r="BF26" s="53"/>
-      <c r="BG26" s="53"/>
-      <c r="BH26" s="162"/>
-      <c r="BI26" s="9"/>
-    </row>
-    <row r="27" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A27" s="160"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="164"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="164"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="165"/>
-      <c r="T27" s="169"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="164"/>
-      <c r="AF27" s="164"/>
-      <c r="AG27" s="164"/>
-      <c r="AH27" s="164"/>
-      <c r="AI27" s="164"/>
-      <c r="AJ27" s="164"/>
-      <c r="AK27" s="164"/>
-      <c r="AL27" s="164"/>
-      <c r="AM27" s="165"/>
-      <c r="AN27" s="160"/>
-      <c r="AO27" s="6"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="161"/>
-      <c r="AR27" s="156"/>
-      <c r="AS27" s="157"/>
-      <c r="AT27" s="158"/>
-      <c r="AU27" s="160"/>
-      <c r="AV27" s="6"/>
-      <c r="AW27" s="161"/>
-      <c r="AX27" s="160"/>
-      <c r="AY27" s="6"/>
-      <c r="AZ27" s="161"/>
-      <c r="BA27" s="52"/>
-      <c r="BB27" s="53"/>
-      <c r="BC27" s="53"/>
-      <c r="BD27" s="53"/>
-      <c r="BE27" s="53"/>
-      <c r="BF27" s="53"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="162"/>
-      <c r="BI27" s="9"/>
-    </row>
-    <row r="28" spans="1:61" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="160"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="89"/>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="89"/>
-      <c r="AI28" s="89"/>
-      <c r="AJ28" s="89"/>
-      <c r="AK28" s="89"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="90"/>
-      <c r="AN28" s="160"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="161"/>
-      <c r="AR28" s="142"/>
-      <c r="AS28" s="143"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="160"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="161"/>
-      <c r="AX28" s="160"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="161"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="162"/>
-      <c r="BI28" s="9"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+    </row>
+    <row r="23" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+    </row>
+    <row r="24" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+    </row>
+    <row r="25" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+    </row>
+    <row r="26" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+    </row>
+    <row r="27" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+    </row>
+    <row r="28" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
     </row>
     <row r="29" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A29" s="118">
-        <v>4</v>
-      </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="130"/>
-      <c r="T29" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD29" s="129"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="129"/>
-      <c r="AH29" s="129"/>
-      <c r="AI29" s="129"/>
-      <c r="AJ29" s="129"/>
-      <c r="AK29" s="129"/>
-      <c r="AL29" s="129"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="140"/>
-      <c r="AP29" s="140"/>
-      <c r="AQ29" s="141"/>
-      <c r="AR29" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS29" s="140"/>
-      <c r="AT29" s="141"/>
-      <c r="AU29" s="98"/>
-      <c r="AV29" s="140"/>
-      <c r="AW29" s="141"/>
-      <c r="AX29" s="98"/>
-      <c r="AY29" s="140"/>
-      <c r="AZ29" s="141"/>
-      <c r="BA29" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB29" s="96"/>
-      <c r="BC29" s="96"/>
-      <c r="BD29" s="96"/>
-      <c r="BE29" s="96"/>
-      <c r="BF29" s="96"/>
-      <c r="BG29" s="96"/>
-      <c r="BH29" s="97"/>
-      <c r="BI29" s="10"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
     </row>
     <row r="30" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="154"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="152"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="150"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="150"/>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="150"/>
-      <c r="AM30" s="159"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="157"/>
-      <c r="AP30" s="157"/>
-      <c r="AQ30" s="158"/>
-      <c r="AR30" s="156"/>
-      <c r="AS30" s="157"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="156"/>
-      <c r="AV30" s="157"/>
-      <c r="AW30" s="158"/>
-      <c r="AX30" s="156"/>
-      <c r="AY30" s="157"/>
-      <c r="AZ30" s="158"/>
-      <c r="BA30" s="45"/>
-      <c r="BB30" s="46"/>
-      <c r="BC30" s="46"/>
-      <c r="BD30" s="46"/>
-      <c r="BE30" s="46"/>
-      <c r="BF30" s="46"/>
-      <c r="BG30" s="46"/>
-      <c r="BH30" s="47"/>
-      <c r="BI30" s="10"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="5"/>
+      <c r="BI30" s="5"/>
     </row>
     <row r="31" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="120"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="137"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="131"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="132"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="132"/>
-      <c r="AJ31" s="132"/>
-      <c r="AK31" s="132"/>
-      <c r="AL31" s="132"/>
-      <c r="AM31" s="133"/>
-      <c r="AN31" s="142"/>
-      <c r="AO31" s="143"/>
-      <c r="AP31" s="143"/>
-      <c r="AQ31" s="144"/>
-      <c r="AR31" s="142"/>
-      <c r="AS31" s="143"/>
-      <c r="AT31" s="144"/>
-      <c r="AU31" s="142"/>
-      <c r="AV31" s="143"/>
-      <c r="AW31" s="144"/>
-      <c r="AX31" s="142"/>
-      <c r="AY31" s="143"/>
-      <c r="AZ31" s="144"/>
-      <c r="BA31" s="92"/>
-      <c r="BB31" s="93"/>
-      <c r="BC31" s="93"/>
-      <c r="BD31" s="93"/>
-      <c r="BE31" s="93"/>
-      <c r="BF31" s="93"/>
-      <c r="BG31" s="93"/>
-      <c r="BH31" s="94"/>
-      <c r="BI31" s="10"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+      <c r="BH31" s="5"/>
+      <c r="BI31" s="5"/>
     </row>
     <row r="32" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A32" s="118">
-        <v>1</v>
-      </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="130"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD32" s="129"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="129"/>
-      <c r="AH32" s="129"/>
-      <c r="AI32" s="129"/>
-      <c r="AJ32" s="129"/>
-      <c r="AK32" s="129"/>
-      <c r="AL32" s="129"/>
-      <c r="AM32" s="130"/>
-      <c r="AN32" s="98"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="98"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS32" s="98"/>
-      <c r="AT32" s="98"/>
-      <c r="AU32" s="98"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="98"/>
-      <c r="AX32" s="98"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="98"/>
-      <c r="BA32" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB32" s="100"/>
-      <c r="BC32" s="100"/>
-      <c r="BD32" s="100"/>
-      <c r="BE32" s="100"/>
-      <c r="BF32" s="100"/>
-      <c r="BG32" s="100"/>
-      <c r="BH32" s="101"/>
-      <c r="BI32" s="10"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="5"/>
+      <c r="BI32" s="5"/>
     </row>
     <row r="33" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A33" s="120"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="131"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="132"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="132"/>
-      <c r="AJ33" s="132"/>
-      <c r="AK33" s="132"/>
-      <c r="AL33" s="132"/>
-      <c r="AM33" s="133"/>
-      <c r="AN33" s="98"/>
-      <c r="AO33" s="98"/>
-      <c r="AP33" s="98"/>
-      <c r="AQ33" s="98"/>
-      <c r="AR33" s="98"/>
-      <c r="AS33" s="98"/>
-      <c r="AT33" s="98"/>
-      <c r="AU33" s="98"/>
-      <c r="AV33" s="98"/>
-      <c r="AW33" s="98"/>
-      <c r="AX33" s="98"/>
-      <c r="AY33" s="98"/>
-      <c r="AZ33" s="98"/>
-      <c r="BA33" s="92"/>
-      <c r="BB33" s="93"/>
-      <c r="BC33" s="93"/>
-      <c r="BD33" s="93"/>
-      <c r="BE33" s="93"/>
-      <c r="BF33" s="93"/>
-      <c r="BG33" s="93"/>
-      <c r="BH33" s="94"/>
-      <c r="BI33" s="10"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
     </row>
     <row r="34" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A34" s="118">
-        <v>2</v>
-      </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="129" t="s">
-        <v>62</v>
-      </c>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="135"/>
-      <c r="V34" s="135"/>
-      <c r="W34" s="135"/>
-      <c r="X34" s="135"/>
-      <c r="Y34" s="135"/>
-      <c r="Z34" s="135"/>
-      <c r="AA34" s="135"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD34" s="129"/>
-      <c r="AE34" s="129"/>
-      <c r="AF34" s="129"/>
-      <c r="AG34" s="129"/>
-      <c r="AH34" s="129"/>
-      <c r="AI34" s="129"/>
-      <c r="AJ34" s="129"/>
-      <c r="AK34" s="129"/>
-      <c r="AL34" s="129"/>
-      <c r="AM34" s="130"/>
-      <c r="AN34" s="98"/>
-      <c r="AO34" s="140"/>
-      <c r="AP34" s="140"/>
-      <c r="AQ34" s="141"/>
-      <c r="AR34" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS34" s="140"/>
-      <c r="AT34" s="141"/>
-      <c r="AU34" s="98"/>
-      <c r="AV34" s="140"/>
-      <c r="AW34" s="141"/>
-      <c r="AX34" s="98"/>
-      <c r="AY34" s="98"/>
-      <c r="AZ34" s="98"/>
-      <c r="BA34" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB34" s="96"/>
-      <c r="BC34" s="96"/>
-      <c r="BD34" s="96"/>
-      <c r="BE34" s="96"/>
-      <c r="BF34" s="96"/>
-      <c r="BG34" s="96"/>
-      <c r="BH34" s="97"/>
-      <c r="BI34" s="10"/>
-    </row>
-    <row r="35" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A35" s="120"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="138"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="138"/>
-      <c r="Q35" s="138"/>
-      <c r="R35" s="138"/>
-      <c r="S35" s="139"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="138"/>
-      <c r="V35" s="138"/>
-      <c r="W35" s="138"/>
-      <c r="X35" s="138"/>
-      <c r="Y35" s="138"/>
-      <c r="Z35" s="138"/>
-      <c r="AA35" s="138"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="131"/>
-      <c r="AD35" s="132"/>
-      <c r="AE35" s="132"/>
-      <c r="AF35" s="132"/>
-      <c r="AG35" s="132"/>
-      <c r="AH35" s="132"/>
-      <c r="AI35" s="132"/>
-      <c r="AJ35" s="132"/>
-      <c r="AK35" s="132"/>
-      <c r="AL35" s="132"/>
-      <c r="AM35" s="133"/>
-      <c r="AN35" s="142"/>
-      <c r="AO35" s="143"/>
-      <c r="AP35" s="143"/>
-      <c r="AQ35" s="144"/>
-      <c r="AR35" s="142"/>
-      <c r="AS35" s="143"/>
-      <c r="AT35" s="144"/>
-      <c r="AU35" s="142"/>
-      <c r="AV35" s="143"/>
-      <c r="AW35" s="144"/>
-      <c r="AX35" s="98"/>
-      <c r="AY35" s="98"/>
-      <c r="AZ35" s="98"/>
-      <c r="BA35" s="92"/>
-      <c r="BB35" s="93"/>
-      <c r="BC35" s="93"/>
-      <c r="BD35" s="93"/>
-      <c r="BE35" s="93"/>
-      <c r="BF35" s="93"/>
-      <c r="BG35" s="93"/>
-      <c r="BH35" s="94"/>
-      <c r="BI35" s="10"/>
-    </row>
-    <row r="36" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A36" s="118">
-        <v>3</v>
-      </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="N36" s="135"/>
-      <c r="O36" s="135"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="136"/>
-      <c r="T36" s="134"/>
-      <c r="U36" s="135"/>
-      <c r="V36" s="135"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="135"/>
-      <c r="AA36" s="135"/>
-      <c r="AB36" s="135"/>
-      <c r="AC36" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD36" s="135"/>
-      <c r="AE36" s="135"/>
-      <c r="AF36" s="135"/>
-      <c r="AG36" s="135"/>
-      <c r="AH36" s="135"/>
-      <c r="AI36" s="135"/>
-      <c r="AJ36" s="135"/>
-      <c r="AK36" s="135"/>
-      <c r="AL36" s="135"/>
-      <c r="AM36" s="136"/>
-      <c r="AN36" s="98"/>
-      <c r="AO36" s="140"/>
-      <c r="AP36" s="140"/>
-      <c r="AQ36" s="141"/>
-      <c r="AR36" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS36" s="140"/>
-      <c r="AT36" s="141"/>
-      <c r="AU36" s="98"/>
-      <c r="AV36" s="140"/>
-      <c r="AW36" s="141"/>
-      <c r="AX36" s="98"/>
-      <c r="AY36" s="98"/>
-      <c r="AZ36" s="98"/>
-      <c r="BA36" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB36" s="100"/>
-      <c r="BC36" s="100"/>
-      <c r="BD36" s="100"/>
-      <c r="BE36" s="100"/>
-      <c r="BF36" s="100"/>
-      <c r="BG36" s="100"/>
-      <c r="BH36" s="101"/>
-      <c r="BI36" s="10"/>
-    </row>
-    <row r="37" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A37" s="120"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
-      <c r="Q37" s="138"/>
-      <c r="R37" s="138"/>
-      <c r="S37" s="139"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="138"/>
-      <c r="Y37" s="138"/>
-      <c r="Z37" s="138"/>
-      <c r="AA37" s="138"/>
-      <c r="AB37" s="138"/>
-      <c r="AC37" s="153"/>
-      <c r="AD37" s="155"/>
-      <c r="AE37" s="155"/>
-      <c r="AF37" s="155"/>
-      <c r="AG37" s="155"/>
-      <c r="AH37" s="155"/>
-      <c r="AI37" s="155"/>
-      <c r="AJ37" s="155"/>
-      <c r="AK37" s="155"/>
-      <c r="AL37" s="155"/>
-      <c r="AM37" s="152"/>
-      <c r="AN37" s="142"/>
-      <c r="AO37" s="143"/>
-      <c r="AP37" s="143"/>
-      <c r="AQ37" s="144"/>
-      <c r="AR37" s="142"/>
-      <c r="AS37" s="143"/>
-      <c r="AT37" s="144"/>
-      <c r="AU37" s="142"/>
-      <c r="AV37" s="143"/>
-      <c r="AW37" s="144"/>
-      <c r="AX37" s="98"/>
-      <c r="AY37" s="98"/>
-      <c r="AZ37" s="98"/>
-      <c r="BA37" s="92"/>
-      <c r="BB37" s="102"/>
-      <c r="BC37" s="102"/>
-      <c r="BD37" s="102"/>
-      <c r="BE37" s="102"/>
-      <c r="BF37" s="102"/>
-      <c r="BG37" s="102"/>
-      <c r="BH37" s="103"/>
-      <c r="BI37" s="10"/>
-    </row>
-    <row r="38" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A38" s="118">
-        <v>4</v>
-      </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="122" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="U38" s="135"/>
-      <c r="V38" s="135"/>
-      <c r="W38" s="135"/>
-      <c r="X38" s="135"/>
-      <c r="Y38" s="135"/>
-      <c r="Z38" s="135"/>
-      <c r="AA38" s="135"/>
-      <c r="AB38" s="136"/>
-      <c r="AC38" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD38" s="129"/>
-      <c r="AE38" s="129"/>
-      <c r="AF38" s="129"/>
-      <c r="AG38" s="129"/>
-      <c r="AH38" s="129"/>
-      <c r="AI38" s="129"/>
-      <c r="AJ38" s="129"/>
-      <c r="AK38" s="129"/>
-      <c r="AL38" s="129"/>
-      <c r="AM38" s="130"/>
-      <c r="AN38" s="98"/>
-      <c r="AO38" s="140"/>
-      <c r="AP38" s="140"/>
-      <c r="AQ38" s="141"/>
-      <c r="AR38" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS38" s="140"/>
-      <c r="AT38" s="141"/>
-      <c r="AU38" s="98"/>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="141"/>
-      <c r="AX38" s="98"/>
-      <c r="AY38" s="140"/>
-      <c r="AZ38" s="141"/>
-      <c r="BA38" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB38" s="96"/>
-      <c r="BC38" s="96"/>
-      <c r="BD38" s="96"/>
-      <c r="BE38" s="96"/>
-      <c r="BF38" s="96"/>
-      <c r="BG38" s="96"/>
-      <c r="BH38" s="97"/>
-      <c r="BI38" s="10"/>
-    </row>
-    <row r="39" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A39" s="145"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="147"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="154"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-      <c r="P39" s="150"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
-      <c r="S39" s="159"/>
-      <c r="T39" s="153"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="152"/>
-      <c r="AC39" s="154"/>
-      <c r="AD39" s="150"/>
-      <c r="AE39" s="150"/>
-      <c r="AF39" s="150"/>
-      <c r="AG39" s="150"/>
-      <c r="AH39" s="150"/>
-      <c r="AI39" s="150"/>
-      <c r="AJ39" s="150"/>
-      <c r="AK39" s="150"/>
-      <c r="AL39" s="150"/>
-      <c r="AM39" s="159"/>
-      <c r="AN39" s="156"/>
-      <c r="AO39" s="157"/>
-      <c r="AP39" s="157"/>
-      <c r="AQ39" s="158"/>
-      <c r="AR39" s="156"/>
-      <c r="AS39" s="157"/>
-      <c r="AT39" s="158"/>
-      <c r="AU39" s="156"/>
-      <c r="AV39" s="157"/>
-      <c r="AW39" s="158"/>
-      <c r="AX39" s="156"/>
-      <c r="AY39" s="157"/>
-      <c r="AZ39" s="158"/>
-      <c r="BA39" s="45"/>
-      <c r="BB39" s="46"/>
-      <c r="BC39" s="46"/>
-      <c r="BD39" s="46"/>
-      <c r="BE39" s="46"/>
-      <c r="BF39" s="46"/>
-      <c r="BG39" s="46"/>
-      <c r="BH39" s="47"/>
-      <c r="BI39" s="10"/>
-    </row>
-    <row r="40" spans="1:61" s="4" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A40" s="120"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="132"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="138"/>
-      <c r="V40" s="138"/>
-      <c r="W40" s="138"/>
-      <c r="X40" s="138"/>
-      <c r="Y40" s="138"/>
-      <c r="Z40" s="138"/>
-      <c r="AA40" s="138"/>
-      <c r="AB40" s="139"/>
-      <c r="AC40" s="154"/>
-      <c r="AD40" s="150"/>
-      <c r="AE40" s="150"/>
-      <c r="AF40" s="150"/>
-      <c r="AG40" s="150"/>
-      <c r="AH40" s="150"/>
-      <c r="AI40" s="150"/>
-      <c r="AJ40" s="150"/>
-      <c r="AK40" s="150"/>
-      <c r="AL40" s="150"/>
-      <c r="AM40" s="159"/>
-      <c r="AN40" s="142"/>
-      <c r="AO40" s="143"/>
-      <c r="AP40" s="143"/>
-      <c r="AQ40" s="144"/>
-      <c r="AR40" s="142"/>
-      <c r="AS40" s="143"/>
-      <c r="AT40" s="144"/>
-      <c r="AU40" s="142"/>
-      <c r="AV40" s="143"/>
-      <c r="AW40" s="144"/>
-      <c r="AX40" s="142"/>
-      <c r="AY40" s="143"/>
-      <c r="AZ40" s="144"/>
-      <c r="BA40" s="92"/>
-      <c r="BB40" s="93"/>
-      <c r="BC40" s="93"/>
-      <c r="BD40" s="93"/>
-      <c r="BE40" s="93"/>
-      <c r="BF40" s="93"/>
-      <c r="BG40" s="93"/>
-      <c r="BH40" s="94"/>
-      <c r="BI40" s="10"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="96">
+    <mergeCell ref="BA8:BH8"/>
+    <mergeCell ref="BA10:BH10"/>
+    <mergeCell ref="AC8:AM10"/>
+    <mergeCell ref="AN8:AQ10"/>
+    <mergeCell ref="AR8:AT10"/>
+    <mergeCell ref="AU8:AW10"/>
+    <mergeCell ref="AX8:AZ10"/>
+    <mergeCell ref="A8:B10"/>
     <mergeCell ref="C8:G10"/>
     <mergeCell ref="H8:L10"/>
     <mergeCell ref="M8:S10"/>
     <mergeCell ref="T8:AB10"/>
-    <mergeCell ref="AC8:AM10"/>
-    <mergeCell ref="C11:G13"/>
-    <mergeCell ref="H11:L13"/>
-    <mergeCell ref="M11:S13"/>
-    <mergeCell ref="T11:AB13"/>
-    <mergeCell ref="AC11:AM13"/>
+    <mergeCell ref="AN17:AQ19"/>
+    <mergeCell ref="AR17:AT19"/>
+    <mergeCell ref="AU17:AW19"/>
+    <mergeCell ref="AX17:AZ19"/>
+    <mergeCell ref="AC15:AM16"/>
+    <mergeCell ref="AR15:AT16"/>
+    <mergeCell ref="AU15:AW16"/>
+    <mergeCell ref="AX15:AZ16"/>
+    <mergeCell ref="AN15:AQ16"/>
+    <mergeCell ref="T15:AB16"/>
+    <mergeCell ref="T13:AB14"/>
+    <mergeCell ref="AC11:AM12"/>
+    <mergeCell ref="AC13:AM14"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:G19"/>
+    <mergeCell ref="H17:L19"/>
+    <mergeCell ref="M17:S19"/>
     <mergeCell ref="T17:AB19"/>
-    <mergeCell ref="M17:S19"/>
-    <mergeCell ref="H17:L19"/>
-    <mergeCell ref="C17:G19"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="H14:L16"/>
-    <mergeCell ref="M14:S16"/>
-    <mergeCell ref="T14:AB16"/>
-    <mergeCell ref="AR20:AT22"/>
-    <mergeCell ref="AR23:AT25"/>
-    <mergeCell ref="AR26:AT28"/>
-    <mergeCell ref="C29:G31"/>
-    <mergeCell ref="H29:L31"/>
-    <mergeCell ref="M29:S31"/>
-    <mergeCell ref="T29:AB31"/>
-    <mergeCell ref="AC29:AM31"/>
-    <mergeCell ref="AR29:AT31"/>
-    <mergeCell ref="AC26:AM28"/>
-    <mergeCell ref="T26:AB28"/>
-    <mergeCell ref="M26:S28"/>
-    <mergeCell ref="H26:L28"/>
-    <mergeCell ref="C26:G28"/>
-    <mergeCell ref="AR17:AT19"/>
-    <mergeCell ref="C20:G22"/>
-    <mergeCell ref="H20:L22"/>
-    <mergeCell ref="M20:S22"/>
-    <mergeCell ref="T20:AB22"/>
-    <mergeCell ref="AC20:AM22"/>
-    <mergeCell ref="C23:G25"/>
-    <mergeCell ref="AC23:AM25"/>
-    <mergeCell ref="H23:L25"/>
-    <mergeCell ref="M23:S25"/>
-    <mergeCell ref="T23:AB25"/>
-    <mergeCell ref="BA29:BH29"/>
-    <mergeCell ref="BA31:BH31"/>
-    <mergeCell ref="AN29:AQ31"/>
-    <mergeCell ref="AU29:AW31"/>
-    <mergeCell ref="AX29:AZ31"/>
     <mergeCell ref="AC17:AM19"/>
-    <mergeCell ref="AC14:AM16"/>
-    <mergeCell ref="AR14:AT16"/>
-    <mergeCell ref="AR11:AT13"/>
-    <mergeCell ref="AR8:AT10"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="AN38:AQ40"/>
-    <mergeCell ref="AR38:AT40"/>
-    <mergeCell ref="AU38:AW40"/>
-    <mergeCell ref="AX38:AZ40"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AR36:AT37"/>
-    <mergeCell ref="AU36:AW37"/>
-    <mergeCell ref="AX36:AZ37"/>
-    <mergeCell ref="AN36:AQ37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="T34:AB35"/>
-    <mergeCell ref="AC32:AM33"/>
-    <mergeCell ref="AC34:AM35"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="C38:G40"/>
-    <mergeCell ref="H38:L40"/>
-    <mergeCell ref="M38:S40"/>
-    <mergeCell ref="T38:AB40"/>
-    <mergeCell ref="AC38:AM40"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:G35"/>
-    <mergeCell ref="H34:L35"/>
-    <mergeCell ref="M34:S35"/>
-    <mergeCell ref="H36:L37"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="BA36:BH36"/>
-    <mergeCell ref="BA37:BH37"/>
-    <mergeCell ref="BA38:BH38"/>
-    <mergeCell ref="BA40:BH40"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="M13:S14"/>
+    <mergeCell ref="H15:L16"/>
+    <mergeCell ref="M15:S16"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="BA19:BH19"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="H3:AI4"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="T6:AB7"/>
     <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:G33"/>
-    <mergeCell ref="H32:L33"/>
-    <mergeCell ref="M32:S33"/>
-    <mergeCell ref="T32:AB33"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:G37"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="H11:L12"/>
+    <mergeCell ref="M11:S12"/>
+    <mergeCell ref="T11:AB12"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:G16"/>
     <mergeCell ref="AU6:AW7"/>
     <mergeCell ref="AX6:AZ7"/>
     <mergeCell ref="AN6:AQ7"/>
     <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="BA35:BH35"/>
-    <mergeCell ref="BA34:BH34"/>
-    <mergeCell ref="AX32:AZ33"/>
-    <mergeCell ref="AU32:AW33"/>
-    <mergeCell ref="AR32:AT33"/>
-    <mergeCell ref="AN32:AQ33"/>
-    <mergeCell ref="BA33:BH33"/>
-    <mergeCell ref="BA32:BH32"/>
-    <mergeCell ref="AR34:AT35"/>
-    <mergeCell ref="AU34:AW35"/>
-    <mergeCell ref="AX34:AZ35"/>
-    <mergeCell ref="AN34:AQ35"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="AX11:AZ12"/>
+    <mergeCell ref="AU11:AW12"/>
+    <mergeCell ref="AR11:AT12"/>
+    <mergeCell ref="AN11:AQ12"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="AR13:AT14"/>
+    <mergeCell ref="AU13:AW14"/>
+    <mergeCell ref="AX13:AZ14"/>
+    <mergeCell ref="AN13:AQ14"/>
     <mergeCell ref="C6:S6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
@@ -7629,15 +7012,16 @@
     <mergeCell ref="AS1:AV1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR32 AR34 AR36 AR38:AR39 AR29:AR30 AR26:AR27 AR23:AR24 AR20:AR21 AR17:AR18 AR14:AR15 AR11:AR12 AR8:AR9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR11 AR13 AR15 AR17:AR18 AR8:AR9">
       <formula1>"N/A,OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="BA29:BH29" location="hinh_5" display="hinh 5"/>
-    <hyperlink ref="BA34:BH34" location="hinh_2" display="hình 2"/>
-    <hyperlink ref="BA36:BH36" location="hinh_3" display="hình 3"/>
-    <hyperlink ref="BA38:BH38" location="hinh_5" display="hinh 5"/>
+    <hyperlink ref="BA11:BH11" location="hinh_1" display="hình 1"/>
+    <hyperlink ref="BA13:BH13" location="hinh_2" display="hình 2"/>
+    <hyperlink ref="BA15:BH15" location="hinh_3" display="hình 3"/>
+    <hyperlink ref="BA17:BH17" location="hinh_5" display="hinh 5"/>
+    <hyperlink ref="BA8:BH8" location="hinh_5" display="hinh 5"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="15" orientation="portrait" r:id="rId1"/>
@@ -7648,7 +7032,7 @@
           <x14:formula1>
             <xm:f>Defined!D$25:D$33</xm:f>
           </x14:formula1>
-          <xm:sqref>H8:L40</xm:sqref>
+          <xm:sqref>H8:L19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7660,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
